--- a/data/outputs/management_elsevier/47.xlsx
+++ b/data/outputs/management_elsevier/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS74"/>
+  <dimension ref="A1:BU74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +929,12 @@
           <t>2-s2.0-84953637214</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2754</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1158,12 @@
           <t>2-s2.0-84953637787</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>7587</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1365,6 +1387,12 @@
           <t>2-s2.0-84953638165</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>22457</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1589,6 +1617,12 @@
         <is>
           <t>2-s2.0-84953635847</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>18960</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -1795,6 +1829,12 @@
           <t>2-s2.0-84953398203</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1406</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2008,6 +2048,12 @@
           <t>2-s2.0-84944542719</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>5038</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2220,6 +2266,12 @@
         <is>
           <t>2-s2.0-84953380127</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84953637841</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1233</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2635,6 +2693,12 @@
           <t>2-s2.0-84948088168</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2568</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2836,6 +2900,12 @@
           <t>2-s2.0-84948102839</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3037,6 +3107,12 @@
           <t>2-s2.0-84948102359</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2882</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3246,6 +3322,12 @@
           <t>2-s2.0-84948092330</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2610</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3463,6 +3545,12 @@
           <t>2-s2.0-84948073385</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>4482</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3664,6 +3752,12 @@
           <t>2-s2.0-84948092155</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>4593</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3872,6 +3966,12 @@
         <is>
           <t>2-s2.0-84938997888</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4058,6 +4158,12 @@
           <t>2-s2.0-84938984152</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>643</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4251,6 +4357,12 @@
           <t>2-s2.0-84938980030</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1328</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4466,6 +4578,12 @@
           <t>2-s2.0-84938988945</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1283</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4671,6 +4789,12 @@
           <t>2-s2.0-84938968290</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2499</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4874,6 +4998,12 @@
           <t>2-s2.0-84938972908</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1971</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5071,6 +5201,12 @@
           <t>2-s2.0-84930820859</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5278,6 +5414,12 @@
           <t>2-s2.0-84930794289</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3088</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5484,6 +5626,12 @@
         <is>
           <t>2-s2.0-84930819882</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>1703</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -5670,6 +5818,12 @@
           <t>2-s2.0-84930819986</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>516</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5871,6 +6025,12 @@
           <t>2-s2.0-84930824502</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4846</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6074,6 +6234,12 @@
           <t>2-s2.0-84930824160</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>4484</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6286,6 +6452,12 @@
         <is>
           <t>2-s2.0-84930822236</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>4685</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -6488,6 +6660,12 @@
           <t>2-s2.0-84929669857</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4129</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6699,6 +6877,12 @@
           <t>2-s2.0-84929673599</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3522</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6908,6 +7092,12 @@
           <t>2-s2.0-84929711517</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1495</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7111,6 +7301,12 @@
           <t>2-s2.0-85028221806</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1290</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7322,6 +7518,12 @@
           <t>2-s2.0-84929703741</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3938</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7525,6 +7727,12 @@
           <t>2-s2.0-84929703613</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2985</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7726,6 +7934,12 @@
           <t>2-s2.0-84928205303</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1616</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7935,6 +8149,12 @@
           <t>2-s2.0-84928215744</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1658</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8140,6 +8360,12 @@
           <t>2-s2.0-84928167340</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>4047</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8343,6 +8569,12 @@
           <t>2-s2.0-84928205866</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>5849</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8544,6 +8776,12 @@
           <t>2-s2.0-84928213515</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3318</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8745,6 +8983,12 @@
           <t>2-s2.0-84928212801</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1435</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8942,6 +9186,12 @@
           <t>2-s2.0-84928203562</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>2237</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9143,6 +9393,12 @@
           <t>2-s2.0-84928215142</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3155</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9340,6 +9596,12 @@
           <t>2-s2.0-84928213824</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2541</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9549,6 +9811,12 @@
           <t>2-s2.0-84924258488</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>7701</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9750,6 +10018,12 @@
           <t>2-s2.0-84924234143</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>7076</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9955,6 +10229,12 @@
           <t>2-s2.0-84924264757</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>3333</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10160,6 +10440,12 @@
           <t>2-s2.0-84924253425</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1153</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10367,6 +10653,12 @@
           <t>2-s2.0-84924263595</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>3528</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10568,6 +10860,12 @@
           <t>2-s2.0-84924259246</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>3249</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10781,6 +11079,12 @@
           <t>2-s2.0-84924253712</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3251</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10982,6 +11286,12 @@
           <t>2-s2.0-84924267822</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1850</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11183,6 +11493,12 @@
           <t>2-s2.0-84924263652</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>3182</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11396,6 +11712,12 @@
           <t>2-s2.0-84924121590</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1627</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11599,6 +11921,12 @@
           <t>2-s2.0-84924257263</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>2843</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11806,6 +12134,12 @@
           <t>2-s2.0-84924278025</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2988</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12013,6 +12347,12 @@
           <t>2-s2.0-84924228572</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>3070</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12208,6 +12548,12 @@
           <t>2-s2.0-84924028569</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>17803</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12415,6 +12761,12 @@
           <t>2-s2.0-84924077516</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>14257</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12627,6 +12979,12 @@
         <is>
           <t>2-s2.0-84924262613</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>1762</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -12811,6 +13169,12 @@
           <t>2-s2.0-84922024557</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>723</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13016,6 +13380,12 @@
           <t>2-s2.0-84943698509</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>4097</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13217,6 +13587,12 @@
           <t>2-s2.0-84922207267</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2626</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13420,6 +13796,12 @@
           <t>2-s2.0-84961289234</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2041</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13613,6 +13995,12 @@
           <t>2-s2.0-84961291410</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2530</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13814,6 +14202,12 @@
           <t>2-s2.0-84961291140</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1669</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14015,6 +14409,12 @@
           <t>2-s2.0-84922167607</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14216,6 +14616,12 @@
           <t>2-s2.0-84961290169</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>2069</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14421,6 +14827,12 @@
           <t>2-s2.0-84961339339</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14622,6 +15034,12 @@
           <t>2-s2.0-84922009362</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14823,6 +15241,12 @@
           <t>2-s2.0-84961331380</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1631</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15028,6 +15452,12 @@
           <t>2-s2.0-84922168912</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1229</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15229,6 +15659,12 @@
           <t>2-s2.0-84922012774</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>2787</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15438,6 +15874,12 @@
           <t>2-s2.0-84961290397</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2482</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15643,6 +16085,12 @@
           <t>2-s2.0-84922193725</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
